--- a/biology/Histoire de la zoologie et de la botanique/Vernon_Myman_Lyman_Kellogg/Vernon_Myman_Lyman_Kellogg.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Vernon_Myman_Lyman_Kellogg/Vernon_Myman_Lyman_Kellogg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vernon Myman Lyman Kellogg est un écrivain, un administrateur et un entomologiste américain, né le 1er décembre 1867 à Emporia dans le Kansas et mort le 8 août 1937 à Hartford dans le Connecticut.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est Lyman Beecher Kellogg, directeur de l’École normale de l’État du Kansas, puis juge, puis sénateur de l’État avant de devenir procurer général. Sa mère, Abigail Homer, meurt durant son enfance et son père se remarie avec Jennie Mitchell.
 Son enfance se passe au contact de la nature et c’est sans difficulté que l’un de ses professeurs de l’université du Kansas, Francis Huntington Snow (1840-1908), l’encourage dans l’étude de l’histoire naturelle. Il s’intéresse particulièrement à l’entomologie, discipline de Snow et d’un autre de ses professeurs, Samuel Wendell Williston (1852-1918). Il obtient son Bachelor of Arts en 1889, son Master of Sciences en 1892. De 1890 à 1892, il est professeur-assistant à l’université et le secrétaire de Snow.
 En 1891-1892, il fréquente l’université Cornell où il subit l’influence de John Henry Comstock (1849-1931). Il complète ses études à l’université de Leipzig en 1893-1894 et 1897-1898 puis à celle de Paris en 1904-1905.
 David Starr Jordan (1851-1931), président de l’université Stanford, impressionné par le travail accompli par Kellogg à l’université Cornell lui offre un poste de professeur-assistant en entomologie. Kellogg s’y spécialise sur les mallophages et les anoploure et travaille non seulement sur leur taxinomie mais sur les variations spécifiques et leur évolution. Il s’intéresse également beaucoup au ver à soie. Il travaille aux côtés de Jordan et Comstock lorsque ce dernier vient régulièrement à Stanford. En 1908, Kellogg épouse Charlotte Hoffman de Berkeley, union dont naîtra une fille en 1910.
 Lorsque la Première Guerre mondiale éclate, Kellogg se rend à Washington pour offrir au gouvernement le soutien de la science. Le premier résultat de son action est la création du National Research Council où sein duquel il dirige le département de l’agriculture, de la botanique et de la zoologie. Après la guerre, il sera nommé secrétaire permanent, fonction qu’il exerce jusqu’à sa mort. En 1915, il nommé directeur du Comité d’aide aux Belges et participe, de 1917 à 1919 aux travaux de l’organisme américain chargé de l’alimentation puis, de 1918 à 1921, il assiste Herbert Hoover (1874-1964) pour l’aide à la Pologne et à la Russie.
-Kellogg est l’ami de nombreux hommes célèbres[2] comme l’éditeur de journaux William Allen White (1868-1944),  le général Frederick Funston (1865-1917), le juriste et homme politique Herbert Spencer Hadley (1872-1927), l’ingénieur Henry Earle Riggs (1865-?), le président Herbert Hoover (1874-1964), etc. En 1930, Kellogg est atteint par la maladie de Parkinson et meurt quelques années plus tard. Il est enterré près de Carmel Bay, en Californie.
+Kellogg est l’ami de nombreux hommes célèbres comme l’éditeur de journaux William Allen White (1868-1944),  le général Frederick Funston (1865-1917), le juriste et homme politique Herbert Spencer Hadley (1872-1927), l’ingénieur Henry Earle Riggs (1865-?), le président Herbert Hoover (1874-1964), etc. En 1930, Kellogg est atteint par la maladie de Parkinson et meurt quelques années plus tard. Il est enterré près de Carmel Bay, en Californie.
 Avec sa femme, il traduit la biographie de Pierre Curie signée par Marie Curie (1867-1934), elle paraît cher Macmillan Company (New York) en 1923 (rééditée en 1963).
 L’un des 2 710 Liberty Ships (vaisseaux de la liberté) construit entre 1941 et 1945, le no 1691, lui sera dédié.
 </t>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(Liste partielle)
 1892 : Common injurious insects of Kansas (Lawrence University) – exemplaire numérique sur American Libraries.
